--- a/data/打擊成績.xlsx
+++ b/data/打擊成績.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Cpbl-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E270D0F-511D-436C-96DC-85EBC1DB7647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA932310-7F4A-486B-96E9-45972E926227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="味全龍" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="富邦悍將" sheetId="2" r:id="rId3"/>
     <sheet name="樂天桃猿" sheetId="3" r:id="rId4"/>
     <sheet name="中信兄弟" sheetId="4" r:id="rId5"/>
-    <sheet name="統一7-Eleven獅" sheetId="5" r:id="rId6"/>
+    <sheet name="統一7-ELEVEn獅" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -117,13 +117,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,9 +467,9 @@
       <selection activeCell="A10" sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,48 +510,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.255</v>
       </c>
-      <c r="C2" s="2">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>4066</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>467</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>438</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>1038</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>48</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>39</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>873</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>96</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.31900000000000001</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -598,37 +592,37 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -644,205 +638,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFB1901-79E7-4062-81C7-B3CD20BB6087}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2015</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2014</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -858,345 +744,309 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.249</v>
       </c>
-      <c r="C2" s="2">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>4063</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>390</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>366</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>1011</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>50</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>61</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>858</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.30499999999999999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0.254</v>
       </c>
-      <c r="C3" s="1">
-        <v>120</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>4118</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>499</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>469</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>1044</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>67</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>43</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>872</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>67</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>0.32300000000000001</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="C4" s="1">
-        <v>120</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>4240</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>632</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>603</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>1227</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>138</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>882</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C5" s="1">
-        <v>120</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>4184</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>613</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>584</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>1218</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>102</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>59</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>754</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>78</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>0.34499999999999997</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C6" s="1">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>4191</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>634</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>580</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>1217</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>86</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>77</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>775</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>89</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>0.34899999999999998</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.28199999999999997</v>
       </c>
-      <c r="C7" s="1">
-        <v>120</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>4183</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>623</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>572</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>1180</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>95</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>55</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>874</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>51</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>0.34399999999999997</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2015</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2014</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,91 +1062,91 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.27800000000000002</v>
       </c>
-      <c r="C2" s="2">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>4100</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>554</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>509</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>1141</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>58</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>80</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>705</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>100</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.33700000000000002</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>0.374</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1337,7 +1187,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1378,32 +1228,32 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -1422,415 +1272,415 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.27500000000000002</v>
       </c>
-      <c r="C2" s="2">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>4097</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>556</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>507</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>1125</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>50</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>73</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>729</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>91</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.34100000000000003</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>0.26100000000000001</v>
       </c>
-      <c r="C3" s="2">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>4131</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>531</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>490</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>1080</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>77</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>106</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>780</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>83</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="C4" s="2">
-        <v>120</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>4340</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>731</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>684</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>1319</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>143</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>56</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>868</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>75</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>0.36899999999999999</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>0.28299999999999997</v>
       </c>
-      <c r="C5" s="2">
-        <v>120</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>4128</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>672</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>639</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>1168</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>148</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>63</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>832</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>84</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>0.34200000000000003</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>0.27800000000000002</v>
       </c>
-      <c r="C6" s="2">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>4151</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>575</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>538</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>1152</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>91</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>47</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>863</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>81</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>0.33300000000000002</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0.28699999999999998</v>
       </c>
-      <c r="C7" s="2">
-        <v>120</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>4227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>688</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>644</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>1214</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>145</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>28</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>906</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>109</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>0.35699999999999998</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0.32800000000000001</v>
       </c>
-      <c r="C8" s="2">
-        <v>120</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>4455</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>909</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>863</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>1460</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>169</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>36</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>746</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>45</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>0.39600000000000002</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2015</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>0.30499999999999999</v>
       </c>
-      <c r="C9" s="2">
-        <v>120</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>4287</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>684</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>632</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>1308</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>90</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>67</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>703</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>67</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>0.36799999999999999</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2014</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>0.26700000000000002</v>
       </c>
-      <c r="C10" s="2">
-        <v>120</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>4050</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>476</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>430</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>1083</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>52</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>85</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>663</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>113</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>0.32400000000000001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>0.36399999999999999</v>
       </c>
     </row>
@@ -1845,419 +1695,419 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF63A28-2D76-4E01-A59E-BA6D02FB2505}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2022</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>0.251</v>
       </c>
-      <c r="C2" s="3">
-        <v>120</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="1">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1">
         <v>4046</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>453</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>412</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>1016</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>46</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>72</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>749</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>99</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>0.311</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>0.26</v>
       </c>
-      <c r="C3" s="3">
-        <v>120</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="1">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1">
         <v>4003</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>538</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>500</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>1041</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>57</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>77</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>792</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>139</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>0.33</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2020</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C4" s="3">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="1">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1">
         <v>4311</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>741</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>703</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>1261</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>143</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>34</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>959</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>110</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2019</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>0.26</v>
       </c>
-      <c r="C5" s="3">
-        <v>120</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="1">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1">
         <v>4110</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>543</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>505</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>1070</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>99</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>31</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>1007</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>84</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2018</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>0.28899999999999998</v>
       </c>
-      <c r="C6" s="3">
-        <v>120</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="1">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1">
         <v>4226</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>684</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>643</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>1221</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>114</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>42</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>914</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>118</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>0.35199999999999998</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2017</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="C7" s="3">
-        <v>120</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="1">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1">
         <v>4144</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>650</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>598</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>1154</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>103</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>54</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>882</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>80</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>0.35199999999999998</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>0.29699999999999999</v>
       </c>
-      <c r="C8" s="3">
-        <v>120</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="1">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1">
         <v>4310</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>777</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>730</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>1282</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>145</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>20</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>939</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>69</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>0.36699999999999999</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>0.46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2015</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>0.28299999999999997</v>
       </c>
-      <c r="C9" s="3">
-        <v>120</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="1">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1">
         <v>4232</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>630</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>585</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>1196</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>98</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>40</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>822</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>91</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>0.34300000000000003</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2014</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="C10" s="3">
-        <v>120</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="1">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1">
         <v>4115</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>520</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>479</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>1079</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>35</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>820</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>89</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>0.32200000000000001</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>0.35599999999999998</v>
       </c>
     </row>
